--- a/logs.xlsx
+++ b/logs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DormitoryProject\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -95,14 +95,39 @@
   </si>
   <si>
     <t>Bu harf ile başlayan departman departman bulunamadı</t>
+  </si>
+  <si>
+    <t>Girilen üniversitede eğitim alan öğrenciler listelendi</t>
+  </si>
+  <si>
+    <t>Bu üniversiteye ait öğrenci bulunamadı</t>
+  </si>
+  <si>
+    <t>Girilen saatten sonra olan kiralamalar k-listelendi</t>
+  </si>
+  <si>
+    <t>Kiralama bulunamadı</t>
+  </si>
+  <si>
+    <t>Belirtilen miktardan fazla maaş alan yöneticileri başarılı şekilde listelendi</t>
+  </si>
+  <si>
+    <t>Belirtilen miktardan fazla maaş alan yönetici bulunamadı</t>
+  </si>
+  <si>
+    <t>İd değerine göre yönetici işlemi başarılı</t>
+  </si>
+  <si>
+    <t>Bu id değerine ait bir yönetici bulunamadı.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd-MM-yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -133,12 +158,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -481,174 +507,174 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="73.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.44140625"/>
+    <col min="2" max="2" customWidth="true" width="21.6640625"/>
+    <col min="3" max="3" customWidth="true" width="73.33203125"/>
+    <col min="4" max="4" customWidth="true" width="19.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>159</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>45575</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="0">
         <v>160</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>45575</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="0">
         <v>161</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>45575</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="0">
         <v>162</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>45575</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="0">
         <v>163</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>45575</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="0">
         <v>164</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>45575</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="0">
         <v>165</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0">
         <v>45575</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="0">
         <v>166</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0">
         <v>45575</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="0">
         <v>167</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>45575</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="0">
         <v>168</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0">
         <v>45575</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="0">
         <v>169</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D12" s="2">
@@ -656,13 +682,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="0">
         <v>170</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D13" s="2">
@@ -670,13 +696,13 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="0">
         <v>171</v>
       </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D14" s="2">
@@ -684,13 +710,13 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="0">
         <v>172</v>
       </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D15" s="2">
@@ -698,13 +724,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="0">
         <v>173</v>
       </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D16" s="2">
@@ -712,13 +738,13 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="0">
         <v>174</v>
       </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D17" s="2">
@@ -726,13 +752,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="0">
         <v>175</v>
       </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s" s="0">
         <v>5</v>
       </c>
       <c r="D18" s="2">
@@ -740,13 +766,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="0">
         <v>176</v>
       </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D19" s="2">
@@ -754,13 +780,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="0">
         <v>177</v>
       </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D20" s="2">
@@ -768,13 +794,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="0">
         <v>178</v>
       </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s" s="0">
         <v>16</v>
       </c>
       <c r="D21" s="2">
@@ -782,13 +808,13 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="0">
         <v>179</v>
       </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D22" s="2">
@@ -796,13 +822,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="0">
         <v>180</v>
       </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D23" s="2">
@@ -810,13 +836,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="0">
         <v>181</v>
       </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s" s="0">
         <v>16</v>
       </c>
       <c r="D24" s="2">
@@ -824,13 +850,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="0">
         <v>182</v>
       </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D25" s="2">
@@ -838,13 +864,13 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="0">
         <v>183</v>
       </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D26" s="2">
@@ -852,13 +878,13 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="0">
         <v>184</v>
       </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D27" s="2">
@@ -866,13 +892,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="0">
         <v>185</v>
       </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D28" s="2">
@@ -880,13 +906,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="0">
         <v>186</v>
       </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D29" s="2">
@@ -894,13 +920,13 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="0">
         <v>187</v>
       </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D30" s="2">
@@ -908,13 +934,13 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="0">
         <v>188</v>
       </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D31" s="2">
@@ -922,13 +948,13 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="0">
         <v>189</v>
       </c>
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D32" s="2">
@@ -936,13 +962,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="A33" s="0">
         <v>190</v>
       </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D33" s="2">
@@ -950,13 +976,13 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="A34" s="0">
         <v>191</v>
       </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D34" s="2">
@@ -964,13 +990,13 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" s="0">
         <v>192</v>
       </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D35" s="2">
@@ -978,13 +1004,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="0">
         <v>193</v>
       </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D36" s="2">
@@ -992,13 +1018,13 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="0">
         <v>194</v>
       </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D37" s="2">
@@ -1006,13 +1032,13 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="A38" s="0">
         <v>195</v>
       </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D38" s="2">
@@ -1020,13 +1046,13 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="A39" s="0">
         <v>196</v>
       </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B39" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D39" s="2">
@@ -1034,13 +1060,13 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="A40" s="0">
         <v>197</v>
       </c>
-      <c r="B40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B40" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D40" s="2">
@@ -1048,13 +1074,13 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="A41" s="0">
         <v>198</v>
       </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B41" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D41" s="2">
@@ -1062,13 +1088,13 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="A42" s="0">
         <v>199</v>
       </c>
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D42" s="2">
@@ -1076,13 +1102,13 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="A43" s="0">
         <v>200</v>
       </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B43" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D43" s="2">
@@ -1090,13 +1116,13 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="A44" s="0">
         <v>201</v>
       </c>
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B44" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D44" s="2">
@@ -1104,13 +1130,13 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="A45" s="0">
         <v>202</v>
       </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B45" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D45" s="2">
@@ -1118,13 +1144,13 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="A46" s="0">
         <v>203</v>
       </c>
-      <c r="B46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B46" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D46" s="2">
@@ -1132,13 +1158,13 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="A47" s="0">
         <v>204</v>
       </c>
-      <c r="B47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B47" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D47" s="2">
@@ -1146,13 +1172,13 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="A48" s="0">
         <v>205</v>
       </c>
-      <c r="B48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B48" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D48" s="2">
@@ -1160,13 +1186,13 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="A49" s="0">
         <v>206</v>
       </c>
-      <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B49" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D49" s="2">
@@ -1174,13 +1200,13 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="A50" s="0">
         <v>207</v>
       </c>
-      <c r="B50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B50" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D50" s="2">
@@ -1188,13 +1214,13 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="A51" s="0">
         <v>208</v>
       </c>
-      <c r="B51" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B51" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D51" s="2">
@@ -1202,13 +1228,13 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="A52" s="0">
         <v>209</v>
       </c>
-      <c r="B52" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B52" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D52" s="2">
@@ -1216,13 +1242,13 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="A53" s="0">
         <v>210</v>
       </c>
-      <c r="B53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B53" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D53" s="2">
@@ -1230,13 +1256,13 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="A54" s="0">
         <v>211</v>
       </c>
-      <c r="B54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B54" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D54" s="2">
@@ -1244,13 +1270,13 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="A55" s="0">
         <v>212</v>
       </c>
-      <c r="B55" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B55" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D55" s="2">
@@ -1258,13 +1284,13 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="A56" s="0">
         <v>213</v>
       </c>
-      <c r="B56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B56" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D56" s="2">
@@ -1272,13 +1298,13 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57">
+      <c r="A57" s="0">
         <v>214</v>
       </c>
-      <c r="B57" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B57" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D57" s="2">
@@ -1286,13 +1312,13 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="A58" s="0">
         <v>215</v>
       </c>
-      <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B58" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D58" s="2">
@@ -1300,13 +1326,13 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59">
+      <c r="A59" s="0">
         <v>216</v>
       </c>
-      <c r="B59" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B59" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D59" s="2">
@@ -1314,13 +1340,13 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60">
+      <c r="A60" s="0">
         <v>217</v>
       </c>
-      <c r="B60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B60" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D60" s="2">
@@ -1328,13 +1354,13 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61">
+      <c r="A61" s="0">
         <v>218</v>
       </c>
-      <c r="B61" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B61" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D61" s="2">
@@ -1342,13 +1368,13 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62">
+      <c r="A62" s="0">
         <v>219</v>
       </c>
-      <c r="B62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B62" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D62" s="2">
@@ -1356,13 +1382,13 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63">
+      <c r="A63" s="0">
         <v>220</v>
       </c>
-      <c r="B63" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B63" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D63" s="2">
@@ -1370,13 +1396,13 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="A64" s="0">
         <v>221</v>
       </c>
-      <c r="B64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B64" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D64" s="2">
@@ -1384,13 +1410,13 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="A65" s="0">
         <v>222</v>
       </c>
-      <c r="B65" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B65" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D65" s="2">
@@ -1398,13 +1424,13 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="A66" s="0">
         <v>223</v>
       </c>
-      <c r="B66" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B66" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D66" s="2">
@@ -1412,13 +1438,13 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67">
+      <c r="A67" s="0">
         <v>224</v>
       </c>
-      <c r="B67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B67" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D67" s="2">
@@ -1426,13 +1452,13 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68">
+      <c r="A68" s="0">
         <v>225</v>
       </c>
-      <c r="B68" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B68" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D68" s="2">
@@ -1440,13 +1466,13 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69">
+      <c r="A69" s="0">
         <v>226</v>
       </c>
-      <c r="B69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B69" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D69" s="2">
@@ -1454,13 +1480,13 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70">
+      <c r="A70" s="0">
         <v>227</v>
       </c>
-      <c r="B70" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B70" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D70" s="2">
@@ -1468,13 +1494,13 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71">
+      <c r="A71" s="0">
         <v>228</v>
       </c>
-      <c r="B71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B71" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D71" s="2">
@@ -1482,13 +1508,13 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72">
+      <c r="A72" s="0">
         <v>229</v>
       </c>
-      <c r="B72" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B72" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C72" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D72" s="2">
@@ -1496,13 +1522,13 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73">
+      <c r="A73" s="0">
         <v>230</v>
       </c>
-      <c r="B73" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B73" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D73" s="2">
@@ -1510,13 +1536,13 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74">
+      <c r="A74" s="0">
         <v>231</v>
       </c>
-      <c r="B74" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B74" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C74" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D74" s="2">
@@ -1524,13 +1550,13 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75">
+      <c r="A75" s="0">
         <v>232</v>
       </c>
-      <c r="B75" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B75" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C75" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D75" s="2">
@@ -1538,13 +1564,13 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76">
+      <c r="A76" s="0">
         <v>233</v>
       </c>
-      <c r="B76" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B76" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C76" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D76" s="2">
@@ -1552,13 +1578,13 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77">
+      <c r="A77" s="0">
         <v>234</v>
       </c>
-      <c r="B77" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B77" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C77" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D77" s="2">
@@ -1566,13 +1592,13 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78">
+      <c r="A78" s="0">
         <v>235</v>
       </c>
-      <c r="B78" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B78" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s" s="0">
         <v>20</v>
       </c>
       <c r="D78" s="2">
@@ -1580,13 +1606,13 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79">
+      <c r="A79" s="0">
         <v>236</v>
       </c>
-      <c r="B79" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B79" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D79" s="2">
@@ -1594,13 +1620,13 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80">
+      <c r="A80" s="0">
         <v>237</v>
       </c>
-      <c r="B80" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B80" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C80" t="s" s="0">
         <v>20</v>
       </c>
       <c r="D80" s="2">
@@ -1608,13 +1634,13 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81">
+      <c r="A81" s="0">
         <v>238</v>
       </c>
-      <c r="B81" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B81" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D81" s="2">
@@ -1622,13 +1648,13 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82">
+      <c r="A82" s="0">
         <v>239</v>
       </c>
-      <c r="B82" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B82" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s" s="0">
         <v>20</v>
       </c>
       <c r="D82" s="2">
@@ -1636,13 +1662,13 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83">
+      <c r="A83" s="0">
         <v>240</v>
       </c>
-      <c r="B83" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B83" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D83" s="2">
@@ -1650,13 +1676,13 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84">
+      <c r="A84" s="0">
         <v>241</v>
       </c>
-      <c r="B84" t="s">
-        <v>10</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B84" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s" s="0">
         <v>20</v>
       </c>
       <c r="D84" s="2">
@@ -1664,13 +1690,13 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85">
+      <c r="A85" s="0">
         <v>242</v>
       </c>
-      <c r="B85" t="s">
-        <v>10</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B85" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D85" s="2">
@@ -1678,13 +1704,13 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86">
+      <c r="A86" s="0">
         <v>243</v>
       </c>
-      <c r="B86" t="s">
-        <v>10</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B86" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s" s="0">
         <v>20</v>
       </c>
       <c r="D86" s="2">
@@ -1692,13 +1718,13 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87">
+      <c r="A87" s="0">
         <v>244</v>
       </c>
-      <c r="B87" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B87" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D87" s="2">
@@ -1706,13 +1732,13 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88">
+      <c r="A88" s="0">
         <v>245</v>
       </c>
-      <c r="B88" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B88" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C88" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D88" s="2">
@@ -1720,13 +1746,13 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89">
+      <c r="A89" s="0">
         <v>246</v>
       </c>
-      <c r="B89" t="s">
-        <v>4</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B89" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D89" s="2">
@@ -1734,13 +1760,13 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90">
+      <c r="A90" s="0">
         <v>247</v>
       </c>
-      <c r="B90" t="s">
-        <v>4</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B90" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C90" t="s" s="0">
         <v>21</v>
       </c>
       <c r="D90" s="2">
@@ -1748,13 +1774,13 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91">
+      <c r="A91" s="0">
         <v>248</v>
       </c>
-      <c r="B91" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B91" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C91" t="s" s="0">
         <v>22</v>
       </c>
       <c r="D91" s="2">
@@ -1762,13 +1788,13 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92">
+      <c r="A92" s="0">
         <v>249</v>
       </c>
-      <c r="B92" t="s">
-        <v>4</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B92" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C92" t="s" s="0">
         <v>23</v>
       </c>
       <c r="D92" s="2">
@@ -1776,13 +1802,13 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93">
+      <c r="A93" s="0">
         <v>250</v>
       </c>
-      <c r="B93" t="s">
-        <v>10</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B93" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C93" t="s" s="0">
         <v>24</v>
       </c>
       <c r="D93" s="2">
@@ -1790,17 +1816,409 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94">
+      <c r="A94" s="0">
         <v>251</v>
       </c>
-      <c r="B94" t="s">
-        <v>4</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B94" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C94" t="s" s="0">
         <v>23</v>
       </c>
       <c r="D94" s="2">
         <v>45583</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n" s="0">
+        <v>252.0</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D95" t="n" s="3">
+        <v>45583.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n" s="0">
+        <v>253.0</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D96" t="n" s="3">
+        <v>45583.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n" s="0">
+        <v>254.0</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D97" t="n" s="3">
+        <v>45583.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n" s="0">
+        <v>255.0</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D98" t="n" s="3">
+        <v>45583.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n" s="0">
+        <v>256.0</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D99" t="n" s="3">
+        <v>45583.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n" s="0">
+        <v>257.0</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D100" t="n" s="3">
+        <v>45583.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n" s="0">
+        <v>258.0</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D101" t="n" s="3">
+        <v>45583.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n" s="0">
+        <v>259.0</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D102" t="n" s="3">
+        <v>45583.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n" s="0">
+        <v>260.0</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D103" t="n" s="3">
+        <v>45583.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n" s="0">
+        <v>261.0</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D104" t="n" s="3">
+        <v>45583.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n" s="0">
+        <v>262.0</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D105" t="n" s="3">
+        <v>45583.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n" s="0">
+        <v>263.0</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D106" t="n" s="3">
+        <v>45583.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n" s="0">
+        <v>264.0</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D107" t="n" s="3">
+        <v>45583.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n" s="0">
+        <v>265.0</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D108" t="n" s="3">
+        <v>45583.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n" s="0">
+        <v>266.0</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D109" t="n" s="3">
+        <v>45583.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n" s="0">
+        <v>267.0</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D110" t="n" s="3">
+        <v>45583.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n" s="0">
+        <v>268.0</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D111" t="n" s="3">
+        <v>45583.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n" s="0">
+        <v>269.0</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D112" t="n" s="3">
+        <v>45585.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n" s="0">
+        <v>270.0</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D113" t="n" s="3">
+        <v>45585.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n" s="0">
+        <v>271.0</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D114" t="n" s="3">
+        <v>45585.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n" s="0">
+        <v>272.0</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D115" t="n" s="3">
+        <v>45585.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n" s="0">
+        <v>273.0</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D116" t="n" s="3">
+        <v>45585.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n" s="0">
+        <v>274.0</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D117" t="n" s="3">
+        <v>45585.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n" s="0">
+        <v>275.0</v>
+      </c>
+      <c r="B118" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D118" t="n" s="3">
+        <v>45585.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n" s="0">
+        <v>276.0</v>
+      </c>
+      <c r="B119" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D119" t="n" s="3">
+        <v>45586.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n" s="0">
+        <v>277.0</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D120" t="n" s="3">
+        <v>45586.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n" s="0">
+        <v>278.0</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D121" t="n" s="3">
+        <v>45586.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n" s="0">
+        <v>279.0</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D122" t="n" s="3">
+        <v>45586.0</v>
       </c>
     </row>
   </sheetData>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="42">
   <si>
     <t>Id</t>
   </si>
@@ -119,6 +119,33 @@
   </si>
   <si>
     <t>Bu id değerine ait bir yönetici bulunamadı.</t>
+  </si>
+  <si>
+    <t>Tüm ünvanlar listelendi</t>
+  </si>
+  <si>
+    <t>Spor türleri listelendi</t>
+  </si>
+  <si>
+    <t>Tüm üniversitler listelendi</t>
+  </si>
+  <si>
+    <t>İd değerine göre üniversite listelendi</t>
+  </si>
+  <si>
+    <t>Üniversite güncelleme işlemi başarılı.</t>
+  </si>
+  <si>
+    <t>Bu id değerine göre üniversite bulunamadı</t>
+  </si>
+  <si>
+    <t>Üniversite silme İşlemi başarılı.</t>
+  </si>
+  <si>
+    <t>Bu üniversite öğrenci ile ilişkili, siliniemez.</t>
+  </si>
+  <si>
+    <t>Üniversite kaydedildi</t>
   </si>
 </sst>
 </file>
@@ -158,12 +185,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
@@ -499,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -2221,6 +2249,580 @@
         <v>45586.0</v>
       </c>
     </row>
+    <row r="123">
+      <c r="A123" t="n" s="0">
+        <v>280.0</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D123" t="n" s="4">
+        <v>45586.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n" s="0">
+        <v>281.0</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D124" t="n" s="4">
+        <v>45586.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n" s="0">
+        <v>282.0</v>
+      </c>
+      <c r="B125" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C125" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D125" t="n" s="4">
+        <v>45586.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n" s="0">
+        <v>283.0</v>
+      </c>
+      <c r="B126" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D126" t="n" s="4">
+        <v>45586.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n" s="0">
+        <v>284.0</v>
+      </c>
+      <c r="B127" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C127" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D127" t="n" s="4">
+        <v>45586.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n" s="0">
+        <v>285.0</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C128" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D128" t="n" s="4">
+        <v>45586.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n" s="0">
+        <v>286.0</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C129" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D129" t="n" s="4">
+        <v>45586.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n" s="0">
+        <v>287.0</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C130" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D130" t="n" s="4">
+        <v>45586.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n" s="0">
+        <v>288.0</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C131" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D131" t="n" s="4">
+        <v>45586.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n" s="0">
+        <v>289.0</v>
+      </c>
+      <c r="B132" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C132" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D132" t="n" s="4">
+        <v>45586.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n" s="0">
+        <v>290.0</v>
+      </c>
+      <c r="B133" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C133" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D133" t="n" s="4">
+        <v>45586.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n" s="0">
+        <v>291.0</v>
+      </c>
+      <c r="B134" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C134" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D134" t="n" s="4">
+        <v>45586.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n" s="0">
+        <v>292.0</v>
+      </c>
+      <c r="B135" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C135" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D135" t="n" s="4">
+        <v>45586.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n" s="0">
+        <v>293.0</v>
+      </c>
+      <c r="B136" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C136" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D136" t="n" s="4">
+        <v>45586.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n" s="0">
+        <v>294.0</v>
+      </c>
+      <c r="B137" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C137" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D137" t="n" s="4">
+        <v>45586.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n" s="0">
+        <v>295.0</v>
+      </c>
+      <c r="B138" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C138" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D138" t="n" s="4">
+        <v>45586.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n" s="0">
+        <v>296.0</v>
+      </c>
+      <c r="B139" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C139" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D139" t="n" s="4">
+        <v>45586.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n" s="0">
+        <v>297.0</v>
+      </c>
+      <c r="B140" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C140" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D140" t="n" s="4">
+        <v>45586.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n" s="0">
+        <v>298.0</v>
+      </c>
+      <c r="B141" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D141" t="n" s="4">
+        <v>45586.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n" s="0">
+        <v>299.0</v>
+      </c>
+      <c r="B142" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C142" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D142" t="n" s="4">
+        <v>45586.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n" s="0">
+        <v>300.0</v>
+      </c>
+      <c r="B143" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C143" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D143" t="n" s="4">
+        <v>45586.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n" s="0">
+        <v>301.0</v>
+      </c>
+      <c r="B144" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C144" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D144" t="n" s="4">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n" s="0">
+        <v>302.0</v>
+      </c>
+      <c r="B145" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C145" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D145" t="n" s="4">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n" s="0">
+        <v>303.0</v>
+      </c>
+      <c r="B146" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C146" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D146" t="n" s="4">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n" s="0">
+        <v>304.0</v>
+      </c>
+      <c r="B147" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C147" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D147" t="n" s="4">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n" s="0">
+        <v>305.0</v>
+      </c>
+      <c r="B148" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C148" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D148" t="n" s="4">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n" s="0">
+        <v>306.0</v>
+      </c>
+      <c r="B149" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C149" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D149" t="n" s="4">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n" s="0">
+        <v>307.0</v>
+      </c>
+      <c r="B150" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C150" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D150" t="n" s="4">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n" s="0">
+        <v>308.0</v>
+      </c>
+      <c r="B151" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C151" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D151" t="n" s="4">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n" s="0">
+        <v>309.0</v>
+      </c>
+      <c r="B152" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C152" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D152" t="n" s="4">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n" s="0">
+        <v>310.0</v>
+      </c>
+      <c r="B153" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C153" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D153" t="n" s="4">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n" s="0">
+        <v>311.0</v>
+      </c>
+      <c r="B154" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C154" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D154" t="n" s="4">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n" s="0">
+        <v>312.0</v>
+      </c>
+      <c r="B155" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C155" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D155" t="n" s="4">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n" s="0">
+        <v>313.0</v>
+      </c>
+      <c r="B156" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C156" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D156" t="n" s="4">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n" s="0">
+        <v>314.0</v>
+      </c>
+      <c r="B157" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C157" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D157" t="n" s="4">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n" s="0">
+        <v>315.0</v>
+      </c>
+      <c r="B158" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C158" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D158" t="n" s="4">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n" s="0">
+        <v>316.0</v>
+      </c>
+      <c r="B159" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C159" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D159" t="n" s="4">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n" s="0">
+        <v>317.0</v>
+      </c>
+      <c r="B160" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C160" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D160" t="n" s="4">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n" s="0">
+        <v>318.0</v>
+      </c>
+      <c r="B161" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C161" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D161" t="n" s="4">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n" s="0">
+        <v>319.0</v>
+      </c>
+      <c r="B162" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C162" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D162" t="n" s="4">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n" s="0">
+        <v>320.0</v>
+      </c>
+      <c r="B163" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C163" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D163" t="n" s="4">
+        <v>45587.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="67">
   <si>
     <t>Id</t>
   </si>
@@ -146,6 +146,81 @@
   </si>
   <si>
     <t>Üniversite kaydedildi</t>
+  </si>
+  <si>
+    <t>Öğrenci silme İşlemi başarılı.</t>
+  </si>
+  <si>
+    <t>İd değerine göre ünvan listelendi</t>
+  </si>
+  <si>
+    <t>Bu id değerine ait bir ünvan bulunamadı.</t>
+  </si>
+  <si>
+    <t>Ünvan ekleme işlemi başarılı</t>
+  </si>
+  <si>
+    <t>Ünvan güncelleme işlemi başarılı</t>
+  </si>
+  <si>
+    <t>AAAAAA</t>
+  </si>
+  <si>
+    <t>Bu ünvan, çalışan ile ilişkili, siliniemez.</t>
+  </si>
+  <si>
+    <t>Yönetici silme İşlemi başarılı.</t>
+  </si>
+  <si>
+    <t>Departman güncelleme işlemi başarılı</t>
+  </si>
+  <si>
+    <t>Bu departman, personel ile ilişki silinemedi</t>
+  </si>
+  <si>
+    <t>Yönetici ekleme işlemi başarılı</t>
+  </si>
+  <si>
+    <t>Yöentici güncelleme işlemi başarılı</t>
+  </si>
+  <si>
+    <t>Bu manager yönetici ile ilişkili, siliniemez.</t>
+  </si>
+  <si>
+    <t>Bu mail veya telefon numarası zaten kayıtlı</t>
+  </si>
+  <si>
+    <t>Personel kaydetme işlemi başarılır</t>
+  </si>
+  <si>
+    <t>Personel güncelleme işlemi başarılı.</t>
+  </si>
+  <si>
+    <t>İd değerine göre kiralama listelendi</t>
+  </si>
+  <si>
+    <t>İd değerine gmre kiralama listelenmesinde hata oluştu</t>
+  </si>
+  <si>
+    <t>Bu alan daha önce kiralanmış</t>
+  </si>
+  <si>
+    <t>Kiralama ekleme işlemi başarılır</t>
+  </si>
+  <si>
+    <t>Kiralama silme işlemi başarılı</t>
+  </si>
+  <si>
+    <t>Öğrenci silindi ve öğrencinin kiraladığı alanlar silindi</t>
+  </si>
+  <si>
+    <t>Kiralama güncelleme işlemi başarılır</t>
+  </si>
+  <si>
+    <t>Bu spor alanı, kiralama ile ilişkili, siliniemez.</t>
+  </si>
+  <si>
+    <t>Spor türü ekleme işlemi başarılı</t>
   </si>
 </sst>
 </file>
@@ -185,12 +260,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
@@ -527,7 +603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D163"/>
+  <dimension ref="A1:D267"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -2823,6 +2899,1462 @@
         <v>45587.0</v>
       </c>
     </row>
+    <row r="164">
+      <c r="A164" t="n" s="0">
+        <v>321.0</v>
+      </c>
+      <c r="B164" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C164" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D164" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n" s="0">
+        <v>322.0</v>
+      </c>
+      <c r="B165" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C165" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D165" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n" s="0">
+        <v>323.0</v>
+      </c>
+      <c r="B166" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C166" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D166" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n" s="0">
+        <v>324.0</v>
+      </c>
+      <c r="B167" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C167" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D167" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n" s="0">
+        <v>325.0</v>
+      </c>
+      <c r="B168" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C168" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D168" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n" s="0">
+        <v>326.0</v>
+      </c>
+      <c r="B169" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C169" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D169" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n" s="0">
+        <v>327.0</v>
+      </c>
+      <c r="B170" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C170" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D170" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n" s="0">
+        <v>328.0</v>
+      </c>
+      <c r="B171" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C171" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D171" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n" s="0">
+        <v>329.0</v>
+      </c>
+      <c r="B172" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C172" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="D172" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n" s="0">
+        <v>330.0</v>
+      </c>
+      <c r="B173" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C173" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D173" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n" s="0">
+        <v>331.0</v>
+      </c>
+      <c r="B174" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C174" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D174" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n" s="0">
+        <v>332.0</v>
+      </c>
+      <c r="B175" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C175" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D175" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n" s="0">
+        <v>333.0</v>
+      </c>
+      <c r="B176" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C176" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D176" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n" s="0">
+        <v>334.0</v>
+      </c>
+      <c r="B177" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C177" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="D177" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n" s="0">
+        <v>335.0</v>
+      </c>
+      <c r="B178" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C178" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D178" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n" s="0">
+        <v>336.0</v>
+      </c>
+      <c r="B179" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C179" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D179" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n" s="0">
+        <v>337.0</v>
+      </c>
+      <c r="B180" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C180" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D180" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n" s="0">
+        <v>338.0</v>
+      </c>
+      <c r="B181" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C181" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D181" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n" s="0">
+        <v>339.0</v>
+      </c>
+      <c r="B182" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C182" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D182" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n" s="0">
+        <v>340.0</v>
+      </c>
+      <c r="B183" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C183" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D183" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n" s="0">
+        <v>341.0</v>
+      </c>
+      <c r="B184" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C184" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D184" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n" s="0">
+        <v>342.0</v>
+      </c>
+      <c r="B185" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C185" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D185" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n" s="0">
+        <v>343.0</v>
+      </c>
+      <c r="B186" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C186" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D186" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n" s="0">
+        <v>344.0</v>
+      </c>
+      <c r="B187" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C187" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="D187" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n" s="0">
+        <v>345.0</v>
+      </c>
+      <c r="B188" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C188" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D188" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n" s="0">
+        <v>346.0</v>
+      </c>
+      <c r="B189" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C189" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D189" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n" s="0">
+        <v>347.0</v>
+      </c>
+      <c r="B190" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C190" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D190" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n" s="0">
+        <v>348.0</v>
+      </c>
+      <c r="B191" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C191" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D191" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n" s="0">
+        <v>349.0</v>
+      </c>
+      <c r="B192" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C192" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D192" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n" s="0">
+        <v>350.0</v>
+      </c>
+      <c r="B193" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C193" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D193" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n" s="0">
+        <v>351.0</v>
+      </c>
+      <c r="B194" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C194" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D194" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n" s="0">
+        <v>352.0</v>
+      </c>
+      <c r="B195" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C195" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D195" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n" s="0">
+        <v>353.0</v>
+      </c>
+      <c r="B196" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C196" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="D196" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n" s="0">
+        <v>354.0</v>
+      </c>
+      <c r="B197" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C197" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="D197" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n" s="0">
+        <v>355.0</v>
+      </c>
+      <c r="B198" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C198" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D198" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n" s="0">
+        <v>356.0</v>
+      </c>
+      <c r="B199" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C199" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D199" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n" s="0">
+        <v>357.0</v>
+      </c>
+      <c r="B200" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C200" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D200" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n" s="0">
+        <v>358.0</v>
+      </c>
+      <c r="B201" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C201" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D201" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n" s="0">
+        <v>359.0</v>
+      </c>
+      <c r="B202" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C202" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="D202" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n" s="0">
+        <v>360.0</v>
+      </c>
+      <c r="B203" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C203" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D203" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n" s="0">
+        <v>361.0</v>
+      </c>
+      <c r="B204" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C204" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D204" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n" s="0">
+        <v>362.0</v>
+      </c>
+      <c r="B205" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C205" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="D205" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n" s="0">
+        <v>363.0</v>
+      </c>
+      <c r="B206" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C206" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D206" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n" s="0">
+        <v>364.0</v>
+      </c>
+      <c r="B207" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C207" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="D207" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n" s="0">
+        <v>365.0</v>
+      </c>
+      <c r="B208" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C208" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D208" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n" s="0">
+        <v>366.0</v>
+      </c>
+      <c r="B209" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C209" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="D209" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n" s="0">
+        <v>367.0</v>
+      </c>
+      <c r="B210" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C210" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="D210" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n" s="0">
+        <v>368.0</v>
+      </c>
+      <c r="B211" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C211" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D211" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n" s="0">
+        <v>369.0</v>
+      </c>
+      <c r="B212" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C212" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D212" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n" s="0">
+        <v>370.0</v>
+      </c>
+      <c r="B213" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C213" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="D213" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n" s="0">
+        <v>371.0</v>
+      </c>
+      <c r="B214" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C214" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D214" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n" s="0">
+        <v>372.0</v>
+      </c>
+      <c r="B215" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C215" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D215" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n" s="0">
+        <v>373.0</v>
+      </c>
+      <c r="B216" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C216" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D216" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n" s="0">
+        <v>374.0</v>
+      </c>
+      <c r="B217" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C217" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D217" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n" s="0">
+        <v>375.0</v>
+      </c>
+      <c r="B218" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C218" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D218" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n" s="0">
+        <v>376.0</v>
+      </c>
+      <c r="B219" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C219" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D219" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n" s="0">
+        <v>377.0</v>
+      </c>
+      <c r="B220" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C220" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D220" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n" s="0">
+        <v>378.0</v>
+      </c>
+      <c r="B221" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C221" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D221" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n" s="0">
+        <v>379.0</v>
+      </c>
+      <c r="B222" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C222" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D222" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n" s="0">
+        <v>380.0</v>
+      </c>
+      <c r="B223" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C223" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D223" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n" s="0">
+        <v>381.0</v>
+      </c>
+      <c r="B224" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C224" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D224" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n" s="0">
+        <v>382.0</v>
+      </c>
+      <c r="B225" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C225" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D225" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n" s="0">
+        <v>383.0</v>
+      </c>
+      <c r="B226" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C226" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D226" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n" s="0">
+        <v>384.0</v>
+      </c>
+      <c r="B227" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C227" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D227" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n" s="0">
+        <v>385.0</v>
+      </c>
+      <c r="B228" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C228" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="D228" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n" s="0">
+        <v>386.0</v>
+      </c>
+      <c r="B229" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C229" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="D229" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n" s="0">
+        <v>387.0</v>
+      </c>
+      <c r="B230" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C230" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="D230" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n" s="0">
+        <v>388.0</v>
+      </c>
+      <c r="B231" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C231" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D231" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n" s="0">
+        <v>389.0</v>
+      </c>
+      <c r="B232" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C232" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D232" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n" s="0">
+        <v>390.0</v>
+      </c>
+      <c r="B233" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C233" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D233" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n" s="0">
+        <v>391.0</v>
+      </c>
+      <c r="B234" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C234" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D234" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n" s="0">
+        <v>392.0</v>
+      </c>
+      <c r="B235" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C235" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D235" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n" s="0">
+        <v>393.0</v>
+      </c>
+      <c r="B236" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C236" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D236" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n" s="0">
+        <v>394.0</v>
+      </c>
+      <c r="B237" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C237" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D237" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n" s="0">
+        <v>395.0</v>
+      </c>
+      <c r="B238" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C238" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D238" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n" s="0">
+        <v>396.0</v>
+      </c>
+      <c r="B239" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C239" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D239" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n" s="0">
+        <v>397.0</v>
+      </c>
+      <c r="B240" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C240" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D240" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n" s="0">
+        <v>398.0</v>
+      </c>
+      <c r="B241" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C241" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D241" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n" s="0">
+        <v>399.0</v>
+      </c>
+      <c r="B242" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C242" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D242" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n" s="0">
+        <v>400.0</v>
+      </c>
+      <c r="B243" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C243" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D243" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n" s="0">
+        <v>401.0</v>
+      </c>
+      <c r="B244" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C244" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D244" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n" s="0">
+        <v>402.0</v>
+      </c>
+      <c r="B245" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C245" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D245" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n" s="0">
+        <v>403.0</v>
+      </c>
+      <c r="B246" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C246" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D246" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n" s="0">
+        <v>404.0</v>
+      </c>
+      <c r="B247" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C247" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D247" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n" s="0">
+        <v>405.0</v>
+      </c>
+      <c r="B248" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C248" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D248" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n" s="0">
+        <v>406.0</v>
+      </c>
+      <c r="B249" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C249" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D249" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n" s="0">
+        <v>407.0</v>
+      </c>
+      <c r="B250" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C250" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D250" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n" s="0">
+        <v>408.0</v>
+      </c>
+      <c r="B251" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C251" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D251" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n" s="0">
+        <v>409.0</v>
+      </c>
+      <c r="B252" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C252" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D252" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n" s="0">
+        <v>410.0</v>
+      </c>
+      <c r="B253" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C253" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D253" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n" s="0">
+        <v>411.0</v>
+      </c>
+      <c r="B254" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C254" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D254" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n" s="0">
+        <v>412.0</v>
+      </c>
+      <c r="B255" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C255" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D255" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n" s="0">
+        <v>413.0</v>
+      </c>
+      <c r="B256" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C256" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D256" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n" s="0">
+        <v>414.0</v>
+      </c>
+      <c r="B257" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C257" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D257" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n" s="0">
+        <v>415.0</v>
+      </c>
+      <c r="B258" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C258" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D258" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n" s="0">
+        <v>416.0</v>
+      </c>
+      <c r="B259" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C259" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="D259" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n" s="0">
+        <v>417.0</v>
+      </c>
+      <c r="B260" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C260" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="D260" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n" s="0">
+        <v>418.0</v>
+      </c>
+      <c r="B261" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C261" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="D261" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n" s="0">
+        <v>419.0</v>
+      </c>
+      <c r="B262" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C262" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="D262" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n" s="0">
+        <v>420.0</v>
+      </c>
+      <c r="B263" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C263" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="D263" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n" s="0">
+        <v>421.0</v>
+      </c>
+      <c r="B264" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C264" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="D264" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n" s="0">
+        <v>422.0</v>
+      </c>
+      <c r="B265" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C265" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="D265" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n" s="0">
+        <v>423.0</v>
+      </c>
+      <c r="B266" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C266" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="D266" t="n" s="5">
+        <v>45587.0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n" s="0">
+        <v>424.0</v>
+      </c>
+      <c r="B267" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C267" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D267" t="n" s="5">
+        <v>45588.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="67">
   <si>
     <t>Id</t>
   </si>
@@ -260,12 +260,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -603,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D267"/>
+  <dimension ref="A1:D274"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -4355,6 +4356,104 @@
         <v>45588.0</v>
       </c>
     </row>
+    <row r="268">
+      <c r="A268" t="n" s="0">
+        <v>425.0</v>
+      </c>
+      <c r="B268" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C268" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D268" t="n" s="6">
+        <v>45594.0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n" s="0">
+        <v>426.0</v>
+      </c>
+      <c r="B269" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C269" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D269" t="n" s="6">
+        <v>45594.0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n" s="0">
+        <v>427.0</v>
+      </c>
+      <c r="B270" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C270" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D270" t="n" s="6">
+        <v>45594.0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n" s="0">
+        <v>428.0</v>
+      </c>
+      <c r="B271" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C271" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D271" t="n" s="6">
+        <v>45594.0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n" s="0">
+        <v>429.0</v>
+      </c>
+      <c r="B272" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C272" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D272" t="n" s="6">
+        <v>45595.0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n" s="0">
+        <v>430.0</v>
+      </c>
+      <c r="B273" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C273" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D273" t="n" s="6">
+        <v>45595.0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n" s="0">
+        <v>431.0</v>
+      </c>
+      <c r="B274" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C274" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D274" t="n" s="6">
+        <v>45595.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="67">
   <si>
     <t>Id</t>
   </si>
@@ -260,12 +260,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -604,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D274"/>
+  <dimension ref="A1:D284"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -4454,6 +4455,146 @@
         <v>45595.0</v>
       </c>
     </row>
+    <row r="275">
+      <c r="A275" t="n" s="0">
+        <v>432.0</v>
+      </c>
+      <c r="B275" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C275" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D275" t="n" s="7">
+        <v>45595.0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n" s="0">
+        <v>433.0</v>
+      </c>
+      <c r="B276" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C276" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D276" t="n" s="7">
+        <v>45595.0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n" s="0">
+        <v>434.0</v>
+      </c>
+      <c r="B277" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C277" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D277" t="n" s="7">
+        <v>45595.0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n" s="0">
+        <v>435.0</v>
+      </c>
+      <c r="B278" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C278" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D278" t="n" s="7">
+        <v>45595.0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n" s="0">
+        <v>436.0</v>
+      </c>
+      <c r="B279" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C279" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D279" t="n" s="7">
+        <v>45595.0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n" s="0">
+        <v>437.0</v>
+      </c>
+      <c r="B280" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C280" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D280" t="n" s="7">
+        <v>45595.0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n" s="0">
+        <v>438.0</v>
+      </c>
+      <c r="B281" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C281" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D281" t="n" s="7">
+        <v>45595.0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n" s="0">
+        <v>439.0</v>
+      </c>
+      <c r="B282" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C282" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D282" t="n" s="7">
+        <v>45595.0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n" s="0">
+        <v>440.0</v>
+      </c>
+      <c r="B283" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C283" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D283" t="n" s="7">
+        <v>45597.0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n" s="0">
+        <v>441.0</v>
+      </c>
+      <c r="B284" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C284" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D284" t="n" s="7">
+        <v>45597.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="67">
   <si>
     <t>Id</t>
   </si>
@@ -260,12 +260,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -605,7 +606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D284"/>
+  <dimension ref="A1:D319"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -4595,6 +4596,496 @@
         <v>45597.0</v>
       </c>
     </row>
+    <row r="285">
+      <c r="A285" t="n" s="0">
+        <v>442.0</v>
+      </c>
+      <c r="B285" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C285" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D285" t="n" s="8">
+        <v>45597.0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n" s="0">
+        <v>443.0</v>
+      </c>
+      <c r="B286" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C286" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D286" t="n" s="8">
+        <v>45597.0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n" s="0">
+        <v>444.0</v>
+      </c>
+      <c r="B287" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C287" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D287" t="n" s="8">
+        <v>45597.0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n" s="0">
+        <v>445.0</v>
+      </c>
+      <c r="B288" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C288" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D288" t="n" s="8">
+        <v>45597.0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n" s="0">
+        <v>446.0</v>
+      </c>
+      <c r="B289" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C289" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D289" t="n" s="8">
+        <v>45597.0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n" s="0">
+        <v>447.0</v>
+      </c>
+      <c r="B290" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C290" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D290" t="n" s="8">
+        <v>45597.0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n" s="0">
+        <v>448.0</v>
+      </c>
+      <c r="B291" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C291" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D291" t="n" s="8">
+        <v>45597.0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n" s="0">
+        <v>449.0</v>
+      </c>
+      <c r="B292" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C292" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D292" t="n" s="8">
+        <v>45597.0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n" s="0">
+        <v>450.0</v>
+      </c>
+      <c r="B293" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C293" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D293" t="n" s="8">
+        <v>45597.0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n" s="0">
+        <v>451.0</v>
+      </c>
+      <c r="B294" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C294" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D294" t="n" s="8">
+        <v>45597.0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n" s="0">
+        <v>452.0</v>
+      </c>
+      <c r="B295" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C295" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D295" t="n" s="8">
+        <v>45597.0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n" s="0">
+        <v>453.0</v>
+      </c>
+      <c r="B296" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C296" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D296" t="n" s="8">
+        <v>45597.0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n" s="0">
+        <v>454.0</v>
+      </c>
+      <c r="B297" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C297" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D297" t="n" s="8">
+        <v>45597.0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n" s="0">
+        <v>455.0</v>
+      </c>
+      <c r="B298" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C298" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D298" t="n" s="8">
+        <v>45597.0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n" s="0">
+        <v>456.0</v>
+      </c>
+      <c r="B299" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C299" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D299" t="n" s="8">
+        <v>45597.0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n" s="0">
+        <v>457.0</v>
+      </c>
+      <c r="B300" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C300" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D300" t="n" s="8">
+        <v>45597.0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n" s="0">
+        <v>458.0</v>
+      </c>
+      <c r="B301" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C301" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D301" t="n" s="8">
+        <v>45597.0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n" s="0">
+        <v>459.0</v>
+      </c>
+      <c r="B302" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C302" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D302" t="n" s="8">
+        <v>45597.0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n" s="0">
+        <v>460.0</v>
+      </c>
+      <c r="B303" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C303" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D303" t="n" s="8">
+        <v>45599.0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n" s="0">
+        <v>461.0</v>
+      </c>
+      <c r="B304" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C304" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D304" t="n" s="8">
+        <v>45599.0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n" s="0">
+        <v>462.0</v>
+      </c>
+      <c r="B305" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C305" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D305" t="n" s="8">
+        <v>45599.0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n" s="0">
+        <v>463.0</v>
+      </c>
+      <c r="B306" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C306" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D306" t="n" s="8">
+        <v>45599.0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n" s="0">
+        <v>464.0</v>
+      </c>
+      <c r="B307" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C307" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D307" t="n" s="8">
+        <v>45599.0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n" s="0">
+        <v>465.0</v>
+      </c>
+      <c r="B308" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C308" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D308" t="n" s="8">
+        <v>45599.0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n" s="0">
+        <v>466.0</v>
+      </c>
+      <c r="B309" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C309" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D309" t="n" s="8">
+        <v>45599.0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n" s="0">
+        <v>467.0</v>
+      </c>
+      <c r="B310" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C310" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D310" t="n" s="8">
+        <v>45599.0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n" s="0">
+        <v>468.0</v>
+      </c>
+      <c r="B311" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C311" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D311" t="n" s="8">
+        <v>45599.0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n" s="0">
+        <v>469.0</v>
+      </c>
+      <c r="B312" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C312" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D312" t="n" s="8">
+        <v>45600.0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n" s="0">
+        <v>470.0</v>
+      </c>
+      <c r="B313" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C313" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D313" t="n" s="8">
+        <v>45600.0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n" s="0">
+        <v>471.0</v>
+      </c>
+      <c r="B314" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C314" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D314" t="n" s="8">
+        <v>45600.0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n" s="0">
+        <v>472.0</v>
+      </c>
+      <c r="B315" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C315" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D315" t="n" s="8">
+        <v>45600.0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n" s="0">
+        <v>473.0</v>
+      </c>
+      <c r="B316" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C316" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="D316" t="n" s="8">
+        <v>45600.0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n" s="0">
+        <v>474.0</v>
+      </c>
+      <c r="B317" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C317" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D317" t="n" s="8">
+        <v>45600.0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n" s="0">
+        <v>475.0</v>
+      </c>
+      <c r="B318" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C318" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D318" t="n" s="8">
+        <v>45600.0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n" s="0">
+        <v>476.0</v>
+      </c>
+      <c r="B319" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C319" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D319" t="n" s="8">
+        <v>45600.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="67">
   <si>
     <t>Id</t>
   </si>
@@ -260,12 +260,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -606,7 +607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D319"/>
+  <dimension ref="A1:D329"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -5086,6 +5087,146 @@
         <v>45600.0</v>
       </c>
     </row>
+    <row r="320">
+      <c r="A320" t="n" s="0">
+        <v>625.0</v>
+      </c>
+      <c r="B320" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C320" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D320" t="n" s="9">
+        <v>45611.0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n" s="0">
+        <v>626.0</v>
+      </c>
+      <c r="B321" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C321" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D321" t="n" s="9">
+        <v>45611.0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n" s="0">
+        <v>627.0</v>
+      </c>
+      <c r="B322" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C322" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D322" t="n" s="9">
+        <v>45611.0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n" s="0">
+        <v>628.0</v>
+      </c>
+      <c r="B323" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C323" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D323" t="n" s="9">
+        <v>45611.0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n" s="0">
+        <v>629.0</v>
+      </c>
+      <c r="B324" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C324" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D324" t="n" s="9">
+        <v>45611.0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n" s="0">
+        <v>630.0</v>
+      </c>
+      <c r="B325" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C325" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D325" t="n" s="9">
+        <v>45611.0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n" s="0">
+        <v>631.0</v>
+      </c>
+      <c r="B326" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C326" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D326" t="n" s="9">
+        <v>45611.0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n" s="0">
+        <v>632.0</v>
+      </c>
+      <c r="B327" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C327" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D327" t="n" s="9">
+        <v>45614.0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n" s="0">
+        <v>633.0</v>
+      </c>
+      <c r="B328" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C328" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D328" t="n" s="9">
+        <v>45614.0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n" s="0">
+        <v>634.0</v>
+      </c>
+      <c r="B329" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C329" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D329" t="n" s="9">
+        <v>45615.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="67">
   <si>
     <t>Id</t>
   </si>
@@ -260,12 +260,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -607,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D329"/>
+  <dimension ref="A1:D333"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -5227,6 +5228,62 @@
         <v>45615.0</v>
       </c>
     </row>
+    <row r="330">
+      <c r="A330" t="n" s="0">
+        <v>635.0</v>
+      </c>
+      <c r="B330" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C330" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D330" t="n" s="10">
+        <v>45616.0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n" s="0">
+        <v>636.0</v>
+      </c>
+      <c r="B331" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C331" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D331" t="n" s="10">
+        <v>45616.0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n" s="0">
+        <v>637.0</v>
+      </c>
+      <c r="B332" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C332" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D332" t="n" s="10">
+        <v>45616.0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n" s="0">
+        <v>638.0</v>
+      </c>
+      <c r="B333" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C333" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D333" t="n" s="10">
+        <v>45616.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="68">
   <si>
     <t>Id</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>Spor türü ekleme işlemi başarılı</t>
+  </si>
+  <si>
+    <t>Tüm öğrencilerin listelenmesinde bir hata oluştu</t>
   </si>
 </sst>
 </file>
@@ -260,12 +263,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -608,7 +612,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D333"/>
+  <dimension ref="A1:D340"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -5284,6 +5288,104 @@
         <v>45616.0</v>
       </c>
     </row>
+    <row r="334">
+      <c r="A334" t="n" s="0">
+        <v>639.0</v>
+      </c>
+      <c r="B334" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C334" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="D334" t="n" s="11">
+        <v>45618.0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n" s="0">
+        <v>640.0</v>
+      </c>
+      <c r="B335" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C335" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="D335" t="n" s="11">
+        <v>45618.0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n" s="0">
+        <v>641.0</v>
+      </c>
+      <c r="B336" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C336" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="D336" t="n" s="11">
+        <v>45618.0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n" s="0">
+        <v>642.0</v>
+      </c>
+      <c r="B337" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C337" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="D337" t="n" s="11">
+        <v>45618.0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n" s="0">
+        <v>643.0</v>
+      </c>
+      <c r="B338" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C338" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D338" t="n" s="11">
+        <v>45618.0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n" s="0">
+        <v>644.0</v>
+      </c>
+      <c r="B339" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C339" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D339" t="n" s="11">
+        <v>45618.0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n" s="0">
+        <v>645.0</v>
+      </c>
+      <c r="B340" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C340" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D340" t="n" s="11">
+        <v>45621.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="68">
   <si>
     <t>Id</t>
   </si>
@@ -263,12 +263,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -612,7 +615,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D340"/>
+  <dimension ref="A1:D671"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -5386,6 +5389,4640 @@
         <v>45621.0</v>
       </c>
     </row>
+    <row r="341">
+      <c r="A341" t="n" s="0">
+        <v>646.0</v>
+      </c>
+      <c r="B341" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C341" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D341" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n" s="0">
+        <v>647.0</v>
+      </c>
+      <c r="B342" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C342" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D342" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n" s="0">
+        <v>648.0</v>
+      </c>
+      <c r="B343" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C343" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D343" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n" s="0">
+        <v>649.0</v>
+      </c>
+      <c r="B344" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C344" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D344" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n" s="0">
+        <v>650.0</v>
+      </c>
+      <c r="B345" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C345" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D345" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n" s="0">
+        <v>651.0</v>
+      </c>
+      <c r="B346" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C346" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D346" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n" s="0">
+        <v>652.0</v>
+      </c>
+      <c r="B347" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C347" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D347" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n" s="0">
+        <v>653.0</v>
+      </c>
+      <c r="B348" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C348" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D348" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n" s="0">
+        <v>654.0</v>
+      </c>
+      <c r="B349" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C349" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D349" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n" s="0">
+        <v>655.0</v>
+      </c>
+      <c r="B350" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C350" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D350" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n" s="0">
+        <v>656.0</v>
+      </c>
+      <c r="B351" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C351" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D351" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n" s="0">
+        <v>657.0</v>
+      </c>
+      <c r="B352" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C352" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D352" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n" s="0">
+        <v>658.0</v>
+      </c>
+      <c r="B353" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C353" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D353" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n" s="0">
+        <v>659.0</v>
+      </c>
+      <c r="B354" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C354" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D354" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n" s="0">
+        <v>660.0</v>
+      </c>
+      <c r="B355" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C355" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D355" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n" s="0">
+        <v>661.0</v>
+      </c>
+      <c r="B356" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C356" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D356" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n" s="0">
+        <v>662.0</v>
+      </c>
+      <c r="B357" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C357" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D357" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n" s="0">
+        <v>663.0</v>
+      </c>
+      <c r="B358" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C358" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D358" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n" s="0">
+        <v>664.0</v>
+      </c>
+      <c r="B359" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C359" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D359" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n" s="0">
+        <v>665.0</v>
+      </c>
+      <c r="B360" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C360" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D360" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n" s="0">
+        <v>666.0</v>
+      </c>
+      <c r="B361" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C361" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D361" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n" s="0">
+        <v>667.0</v>
+      </c>
+      <c r="B362" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C362" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D362" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n" s="0">
+        <v>668.0</v>
+      </c>
+      <c r="B363" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C363" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D363" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n" s="0">
+        <v>669.0</v>
+      </c>
+      <c r="B364" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C364" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D364" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n" s="0">
+        <v>670.0</v>
+      </c>
+      <c r="B365" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C365" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D365" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n" s="0">
+        <v>671.0</v>
+      </c>
+      <c r="B366" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C366" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D366" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n" s="0">
+        <v>672.0</v>
+      </c>
+      <c r="B367" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C367" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D367" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n" s="0">
+        <v>673.0</v>
+      </c>
+      <c r="B368" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C368" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D368" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n" s="0">
+        <v>674.0</v>
+      </c>
+      <c r="B369" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C369" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D369" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n" s="0">
+        <v>675.0</v>
+      </c>
+      <c r="B370" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C370" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D370" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n" s="0">
+        <v>676.0</v>
+      </c>
+      <c r="B371" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C371" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D371" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n" s="0">
+        <v>677.0</v>
+      </c>
+      <c r="B372" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C372" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D372" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n" s="0">
+        <v>678.0</v>
+      </c>
+      <c r="B373" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C373" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D373" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n" s="0">
+        <v>679.0</v>
+      </c>
+      <c r="B374" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C374" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D374" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n" s="0">
+        <v>680.0</v>
+      </c>
+      <c r="B375" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C375" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D375" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n" s="0">
+        <v>681.0</v>
+      </c>
+      <c r="B376" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C376" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D376" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n" s="0">
+        <v>682.0</v>
+      </c>
+      <c r="B377" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C377" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D377" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n" s="0">
+        <v>683.0</v>
+      </c>
+      <c r="B378" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C378" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D378" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n" s="0">
+        <v>684.0</v>
+      </c>
+      <c r="B379" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C379" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D379" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n" s="0">
+        <v>685.0</v>
+      </c>
+      <c r="B380" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C380" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D380" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n" s="0">
+        <v>686.0</v>
+      </c>
+      <c r="B381" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C381" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D381" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n" s="0">
+        <v>687.0</v>
+      </c>
+      <c r="B382" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C382" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D382" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n" s="0">
+        <v>688.0</v>
+      </c>
+      <c r="B383" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C383" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D383" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n" s="0">
+        <v>689.0</v>
+      </c>
+      <c r="B384" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C384" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D384" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n" s="0">
+        <v>690.0</v>
+      </c>
+      <c r="B385" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C385" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D385" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n" s="0">
+        <v>691.0</v>
+      </c>
+      <c r="B386" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C386" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D386" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n" s="0">
+        <v>692.0</v>
+      </c>
+      <c r="B387" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C387" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D387" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n" s="0">
+        <v>693.0</v>
+      </c>
+      <c r="B388" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C388" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D388" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n" s="0">
+        <v>694.0</v>
+      </c>
+      <c r="B389" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C389" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D389" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n" s="0">
+        <v>695.0</v>
+      </c>
+      <c r="B390" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C390" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D390" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n" s="0">
+        <v>696.0</v>
+      </c>
+      <c r="B391" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C391" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D391" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n" s="0">
+        <v>697.0</v>
+      </c>
+      <c r="B392" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C392" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D392" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n" s="0">
+        <v>698.0</v>
+      </c>
+      <c r="B393" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C393" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D393" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n" s="0">
+        <v>699.0</v>
+      </c>
+      <c r="B394" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C394" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D394" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n" s="0">
+        <v>700.0</v>
+      </c>
+      <c r="B395" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C395" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D395" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n" s="0">
+        <v>701.0</v>
+      </c>
+      <c r="B396" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C396" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D396" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n" s="0">
+        <v>702.0</v>
+      </c>
+      <c r="B397" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C397" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D397" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n" s="0">
+        <v>703.0</v>
+      </c>
+      <c r="B398" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C398" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D398" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n" s="0">
+        <v>704.0</v>
+      </c>
+      <c r="B399" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C399" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D399" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n" s="0">
+        <v>705.0</v>
+      </c>
+      <c r="B400" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C400" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D400" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n" s="0">
+        <v>706.0</v>
+      </c>
+      <c r="B401" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C401" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D401" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n" s="0">
+        <v>707.0</v>
+      </c>
+      <c r="B402" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C402" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D402" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n" s="0">
+        <v>708.0</v>
+      </c>
+      <c r="B403" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C403" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D403" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n" s="0">
+        <v>709.0</v>
+      </c>
+      <c r="B404" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C404" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D404" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n" s="0">
+        <v>710.0</v>
+      </c>
+      <c r="B405" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C405" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D405" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n" s="0">
+        <v>711.0</v>
+      </c>
+      <c r="B406" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C406" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D406" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n" s="0">
+        <v>712.0</v>
+      </c>
+      <c r="B407" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C407" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D407" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n" s="0">
+        <v>713.0</v>
+      </c>
+      <c r="B408" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C408" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D408" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n" s="0">
+        <v>714.0</v>
+      </c>
+      <c r="B409" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C409" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D409" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n" s="0">
+        <v>715.0</v>
+      </c>
+      <c r="B410" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C410" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D410" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n" s="0">
+        <v>716.0</v>
+      </c>
+      <c r="B411" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C411" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D411" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n" s="0">
+        <v>717.0</v>
+      </c>
+      <c r="B412" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C412" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D412" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n" s="0">
+        <v>718.0</v>
+      </c>
+      <c r="B413" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C413" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D413" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n" s="0">
+        <v>719.0</v>
+      </c>
+      <c r="B414" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C414" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D414" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n" s="0">
+        <v>720.0</v>
+      </c>
+      <c r="B415" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C415" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D415" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n" s="0">
+        <v>721.0</v>
+      </c>
+      <c r="B416" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C416" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D416" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n" s="0">
+        <v>722.0</v>
+      </c>
+      <c r="B417" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C417" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D417" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n" s="0">
+        <v>723.0</v>
+      </c>
+      <c r="B418" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C418" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D418" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n" s="0">
+        <v>724.0</v>
+      </c>
+      <c r="B419" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C419" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D419" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n" s="0">
+        <v>725.0</v>
+      </c>
+      <c r="B420" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C420" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D420" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n" s="0">
+        <v>726.0</v>
+      </c>
+      <c r="B421" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C421" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D421" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n" s="0">
+        <v>727.0</v>
+      </c>
+      <c r="B422" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C422" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D422" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n" s="0">
+        <v>728.0</v>
+      </c>
+      <c r="B423" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C423" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D423" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n" s="0">
+        <v>729.0</v>
+      </c>
+      <c r="B424" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C424" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D424" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n" s="0">
+        <v>730.0</v>
+      </c>
+      <c r="B425" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C425" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D425" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n" s="0">
+        <v>731.0</v>
+      </c>
+      <c r="B426" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C426" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D426" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n" s="0">
+        <v>732.0</v>
+      </c>
+      <c r="B427" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C427" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D427" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n" s="0">
+        <v>733.0</v>
+      </c>
+      <c r="B428" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C428" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D428" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n" s="0">
+        <v>734.0</v>
+      </c>
+      <c r="B429" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C429" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D429" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n" s="0">
+        <v>735.0</v>
+      </c>
+      <c r="B430" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C430" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D430" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n" s="0">
+        <v>736.0</v>
+      </c>
+      <c r="B431" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C431" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D431" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n" s="0">
+        <v>737.0</v>
+      </c>
+      <c r="B432" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C432" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D432" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n" s="0">
+        <v>738.0</v>
+      </c>
+      <c r="B433" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C433" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D433" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n" s="0">
+        <v>739.0</v>
+      </c>
+      <c r="B434" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C434" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D434" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n" s="0">
+        <v>740.0</v>
+      </c>
+      <c r="B435" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C435" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D435" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n" s="0">
+        <v>741.0</v>
+      </c>
+      <c r="B436" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C436" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D436" t="n" s="13">
+        <v>45625.0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n" s="0">
+        <v>742.0</v>
+      </c>
+      <c r="B437" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C437" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D437" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n" s="0">
+        <v>743.0</v>
+      </c>
+      <c r="B438" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C438" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D438" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n" s="0">
+        <v>744.0</v>
+      </c>
+      <c r="B439" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C439" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D439" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n" s="0">
+        <v>745.0</v>
+      </c>
+      <c r="B440" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C440" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D440" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n" s="0">
+        <v>746.0</v>
+      </c>
+      <c r="B441" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C441" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D441" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n" s="0">
+        <v>747.0</v>
+      </c>
+      <c r="B442" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C442" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D442" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n" s="0">
+        <v>748.0</v>
+      </c>
+      <c r="B443" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C443" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D443" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n" s="0">
+        <v>749.0</v>
+      </c>
+      <c r="B444" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C444" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D444" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n" s="0">
+        <v>750.0</v>
+      </c>
+      <c r="B445" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C445" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D445" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n" s="0">
+        <v>751.0</v>
+      </c>
+      <c r="B446" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C446" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D446" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n" s="0">
+        <v>752.0</v>
+      </c>
+      <c r="B447" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C447" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D447" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n" s="0">
+        <v>753.0</v>
+      </c>
+      <c r="B448" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C448" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D448" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n" s="0">
+        <v>754.0</v>
+      </c>
+      <c r="B449" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C449" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D449" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n" s="0">
+        <v>755.0</v>
+      </c>
+      <c r="B450" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C450" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D450" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n" s="0">
+        <v>756.0</v>
+      </c>
+      <c r="B451" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C451" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D451" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n" s="0">
+        <v>757.0</v>
+      </c>
+      <c r="B452" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C452" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D452" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n" s="0">
+        <v>758.0</v>
+      </c>
+      <c r="B453" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C453" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D453" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n" s="0">
+        <v>759.0</v>
+      </c>
+      <c r="B454" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C454" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D454" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n" s="0">
+        <v>760.0</v>
+      </c>
+      <c r="B455" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C455" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D455" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n" s="0">
+        <v>761.0</v>
+      </c>
+      <c r="B456" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C456" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D456" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n" s="0">
+        <v>762.0</v>
+      </c>
+      <c r="B457" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C457" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D457" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n" s="0">
+        <v>763.0</v>
+      </c>
+      <c r="B458" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C458" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D458" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n" s="0">
+        <v>764.0</v>
+      </c>
+      <c r="B459" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C459" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D459" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n" s="0">
+        <v>765.0</v>
+      </c>
+      <c r="B460" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C460" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D460" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n" s="0">
+        <v>766.0</v>
+      </c>
+      <c r="B461" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C461" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D461" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n" s="0">
+        <v>767.0</v>
+      </c>
+      <c r="B462" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C462" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D462" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n" s="0">
+        <v>768.0</v>
+      </c>
+      <c r="B463" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C463" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D463" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n" s="0">
+        <v>769.0</v>
+      </c>
+      <c r="B464" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C464" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D464" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n" s="0">
+        <v>770.0</v>
+      </c>
+      <c r="B465" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C465" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D465" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n" s="0">
+        <v>771.0</v>
+      </c>
+      <c r="B466" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C466" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D466" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n" s="0">
+        <v>772.0</v>
+      </c>
+      <c r="B467" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C467" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D467" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n" s="0">
+        <v>773.0</v>
+      </c>
+      <c r="B468" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C468" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D468" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n" s="0">
+        <v>774.0</v>
+      </c>
+      <c r="B469" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C469" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D469" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n" s="0">
+        <v>775.0</v>
+      </c>
+      <c r="B470" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C470" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D470" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n" s="0">
+        <v>776.0</v>
+      </c>
+      <c r="B471" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C471" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D471" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n" s="0">
+        <v>777.0</v>
+      </c>
+      <c r="B472" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C472" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D472" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n" s="0">
+        <v>778.0</v>
+      </c>
+      <c r="B473" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C473" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D473" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n" s="0">
+        <v>779.0</v>
+      </c>
+      <c r="B474" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C474" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D474" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n" s="0">
+        <v>780.0</v>
+      </c>
+      <c r="B475" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C475" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D475" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n" s="0">
+        <v>781.0</v>
+      </c>
+      <c r="B476" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C476" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D476" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n" s="0">
+        <v>782.0</v>
+      </c>
+      <c r="B477" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C477" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D477" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n" s="0">
+        <v>783.0</v>
+      </c>
+      <c r="B478" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C478" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D478" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n" s="0">
+        <v>784.0</v>
+      </c>
+      <c r="B479" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C479" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D479" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n" s="0">
+        <v>785.0</v>
+      </c>
+      <c r="B480" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C480" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D480" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n" s="0">
+        <v>786.0</v>
+      </c>
+      <c r="B481" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C481" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D481" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n" s="0">
+        <v>787.0</v>
+      </c>
+      <c r="B482" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C482" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D482" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n" s="0">
+        <v>788.0</v>
+      </c>
+      <c r="B483" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C483" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D483" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n" s="0">
+        <v>789.0</v>
+      </c>
+      <c r="B484" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C484" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D484" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n" s="0">
+        <v>790.0</v>
+      </c>
+      <c r="B485" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C485" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D485" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n" s="0">
+        <v>791.0</v>
+      </c>
+      <c r="B486" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C486" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D486" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n" s="0">
+        <v>792.0</v>
+      </c>
+      <c r="B487" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C487" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D487" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n" s="0">
+        <v>793.0</v>
+      </c>
+      <c r="B488" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C488" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D488" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n" s="0">
+        <v>794.0</v>
+      </c>
+      <c r="B489" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C489" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D489" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n" s="0">
+        <v>795.0</v>
+      </c>
+      <c r="B490" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C490" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D490" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n" s="0">
+        <v>796.0</v>
+      </c>
+      <c r="B491" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C491" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D491" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n" s="0">
+        <v>797.0</v>
+      </c>
+      <c r="B492" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C492" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D492" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n" s="0">
+        <v>798.0</v>
+      </c>
+      <c r="B493" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C493" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D493" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n" s="0">
+        <v>799.0</v>
+      </c>
+      <c r="B494" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C494" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D494" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n" s="0">
+        <v>800.0</v>
+      </c>
+      <c r="B495" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C495" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D495" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n" s="0">
+        <v>801.0</v>
+      </c>
+      <c r="B496" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C496" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D496" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n" s="0">
+        <v>802.0</v>
+      </c>
+      <c r="B497" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C497" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D497" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n" s="0">
+        <v>803.0</v>
+      </c>
+      <c r="B498" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C498" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D498" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n" s="0">
+        <v>804.0</v>
+      </c>
+      <c r="B499" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C499" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D499" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n" s="0">
+        <v>805.0</v>
+      </c>
+      <c r="B500" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C500" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D500" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n" s="0">
+        <v>806.0</v>
+      </c>
+      <c r="B501" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C501" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D501" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n" s="0">
+        <v>807.0</v>
+      </c>
+      <c r="B502" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C502" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D502" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n" s="0">
+        <v>808.0</v>
+      </c>
+      <c r="B503" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C503" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D503" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n" s="0">
+        <v>809.0</v>
+      </c>
+      <c r="B504" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C504" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D504" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n" s="0">
+        <v>810.0</v>
+      </c>
+      <c r="B505" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C505" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D505" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n" s="0">
+        <v>811.0</v>
+      </c>
+      <c r="B506" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C506" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D506" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n" s="0">
+        <v>812.0</v>
+      </c>
+      <c r="B507" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C507" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D507" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n" s="0">
+        <v>813.0</v>
+      </c>
+      <c r="B508" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C508" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D508" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n" s="0">
+        <v>814.0</v>
+      </c>
+      <c r="B509" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C509" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D509" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n" s="0">
+        <v>815.0</v>
+      </c>
+      <c r="B510" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C510" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D510" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n" s="0">
+        <v>816.0</v>
+      </c>
+      <c r="B511" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C511" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D511" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n" s="0">
+        <v>817.0</v>
+      </c>
+      <c r="B512" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C512" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D512" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n" s="0">
+        <v>818.0</v>
+      </c>
+      <c r="B513" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C513" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D513" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n" s="0">
+        <v>819.0</v>
+      </c>
+      <c r="B514" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C514" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D514" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n" s="0">
+        <v>820.0</v>
+      </c>
+      <c r="B515" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C515" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D515" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n" s="0">
+        <v>821.0</v>
+      </c>
+      <c r="B516" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C516" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D516" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n" s="0">
+        <v>822.0</v>
+      </c>
+      <c r="B517" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C517" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D517" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n" s="0">
+        <v>823.0</v>
+      </c>
+      <c r="B518" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C518" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D518" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n" s="0">
+        <v>824.0</v>
+      </c>
+      <c r="B519" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C519" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D519" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n" s="0">
+        <v>825.0</v>
+      </c>
+      <c r="B520" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C520" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D520" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n" s="0">
+        <v>826.0</v>
+      </c>
+      <c r="B521" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C521" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D521" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n" s="0">
+        <v>827.0</v>
+      </c>
+      <c r="B522" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C522" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D522" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n" s="0">
+        <v>828.0</v>
+      </c>
+      <c r="B523" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C523" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D523" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n" s="0">
+        <v>829.0</v>
+      </c>
+      <c r="B524" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C524" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D524" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n" s="0">
+        <v>830.0</v>
+      </c>
+      <c r="B525" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C525" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D525" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n" s="0">
+        <v>831.0</v>
+      </c>
+      <c r="B526" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C526" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D526" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n" s="0">
+        <v>832.0</v>
+      </c>
+      <c r="B527" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C527" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D527" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n" s="0">
+        <v>833.0</v>
+      </c>
+      <c r="B528" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C528" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D528" t="n" s="13">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n" s="0">
+        <v>834.0</v>
+      </c>
+      <c r="B529" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C529" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D529" t="n" s="13">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n" s="0">
+        <v>835.0</v>
+      </c>
+      <c r="B530" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C530" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D530" t="n" s="13">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n" s="0">
+        <v>836.0</v>
+      </c>
+      <c r="B531" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C531" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D531" t="n" s="13">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n" s="0">
+        <v>837.0</v>
+      </c>
+      <c r="B532" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C532" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D532" t="n" s="13">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n" s="0">
+        <v>838.0</v>
+      </c>
+      <c r="B533" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C533" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D533" t="n" s="13">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n" s="0">
+        <v>839.0</v>
+      </c>
+      <c r="B534" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C534" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D534" t="n" s="13">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n" s="0">
+        <v>840.0</v>
+      </c>
+      <c r="B535" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C535" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D535" t="n" s="13">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n" s="0">
+        <v>841.0</v>
+      </c>
+      <c r="B536" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C536" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D536" t="n" s="13">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n" s="0">
+        <v>842.0</v>
+      </c>
+      <c r="B537" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C537" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D537" t="n" s="13">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n" s="0">
+        <v>843.0</v>
+      </c>
+      <c r="B538" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C538" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D538" t="n" s="13">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n" s="0">
+        <v>844.0</v>
+      </c>
+      <c r="B539" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C539" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D539" t="n" s="13">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n" s="0">
+        <v>845.0</v>
+      </c>
+      <c r="B540" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C540" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D540" t="n" s="13">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n" s="0">
+        <v>846.0</v>
+      </c>
+      <c r="B541" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C541" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D541" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n" s="0">
+        <v>847.0</v>
+      </c>
+      <c r="B542" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C542" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D542" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n" s="0">
+        <v>848.0</v>
+      </c>
+      <c r="B543" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C543" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D543" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n" s="0">
+        <v>849.0</v>
+      </c>
+      <c r="B544" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C544" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D544" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n" s="0">
+        <v>850.0</v>
+      </c>
+      <c r="B545" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C545" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D545" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n" s="0">
+        <v>851.0</v>
+      </c>
+      <c r="B546" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C546" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D546" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n" s="0">
+        <v>852.0</v>
+      </c>
+      <c r="B547" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C547" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D547" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n" s="0">
+        <v>853.0</v>
+      </c>
+      <c r="B548" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C548" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D548" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n" s="0">
+        <v>854.0</v>
+      </c>
+      <c r="B549" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C549" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D549" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n" s="0">
+        <v>855.0</v>
+      </c>
+      <c r="B550" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C550" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D550" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n" s="0">
+        <v>856.0</v>
+      </c>
+      <c r="B551" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C551" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D551" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n" s="0">
+        <v>857.0</v>
+      </c>
+      <c r="B552" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C552" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D552" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n" s="0">
+        <v>858.0</v>
+      </c>
+      <c r="B553" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C553" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D553" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n" s="0">
+        <v>859.0</v>
+      </c>
+      <c r="B554" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C554" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D554" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n" s="0">
+        <v>860.0</v>
+      </c>
+      <c r="B555" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C555" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D555" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n" s="0">
+        <v>861.0</v>
+      </c>
+      <c r="B556" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C556" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D556" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n" s="0">
+        <v>862.0</v>
+      </c>
+      <c r="B557" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C557" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D557" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n" s="0">
+        <v>863.0</v>
+      </c>
+      <c r="B558" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C558" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D558" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n" s="0">
+        <v>864.0</v>
+      </c>
+      <c r="B559" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C559" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D559" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n" s="0">
+        <v>865.0</v>
+      </c>
+      <c r="B560" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C560" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D560" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n" s="0">
+        <v>866.0</v>
+      </c>
+      <c r="B561" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C561" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D561" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n" s="0">
+        <v>867.0</v>
+      </c>
+      <c r="B562" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C562" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D562" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n" s="0">
+        <v>868.0</v>
+      </c>
+      <c r="B563" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C563" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D563" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n" s="0">
+        <v>869.0</v>
+      </c>
+      <c r="B564" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C564" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D564" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n" s="0">
+        <v>870.0</v>
+      </c>
+      <c r="B565" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C565" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D565" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n" s="0">
+        <v>871.0</v>
+      </c>
+      <c r="B566" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C566" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D566" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n" s="0">
+        <v>872.0</v>
+      </c>
+      <c r="B567" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C567" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D567" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n" s="0">
+        <v>873.0</v>
+      </c>
+      <c r="B568" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C568" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D568" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n" s="0">
+        <v>874.0</v>
+      </c>
+      <c r="B569" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C569" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D569" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n" s="0">
+        <v>875.0</v>
+      </c>
+      <c r="B570" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C570" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D570" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n" s="0">
+        <v>876.0</v>
+      </c>
+      <c r="B571" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C571" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D571" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n" s="0">
+        <v>877.0</v>
+      </c>
+      <c r="B572" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C572" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D572" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n" s="0">
+        <v>878.0</v>
+      </c>
+      <c r="B573" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C573" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D573" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n" s="0">
+        <v>879.0</v>
+      </c>
+      <c r="B574" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C574" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D574" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n" s="0">
+        <v>880.0</v>
+      </c>
+      <c r="B575" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C575" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D575" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n" s="0">
+        <v>881.0</v>
+      </c>
+      <c r="B576" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C576" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D576" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n" s="0">
+        <v>882.0</v>
+      </c>
+      <c r="B577" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C577" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D577" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n" s="0">
+        <v>883.0</v>
+      </c>
+      <c r="B578" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C578" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D578" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n" s="0">
+        <v>884.0</v>
+      </c>
+      <c r="B579" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C579" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D579" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n" s="0">
+        <v>885.0</v>
+      </c>
+      <c r="B580" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C580" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D580" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n" s="0">
+        <v>886.0</v>
+      </c>
+      <c r="B581" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C581" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D581" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n" s="0">
+        <v>887.0</v>
+      </c>
+      <c r="B582" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C582" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D582" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n" s="0">
+        <v>888.0</v>
+      </c>
+      <c r="B583" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C583" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D583" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n" s="0">
+        <v>889.0</v>
+      </c>
+      <c r="B584" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C584" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D584" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n" s="0">
+        <v>890.0</v>
+      </c>
+      <c r="B585" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C585" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D585" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n" s="0">
+        <v>891.0</v>
+      </c>
+      <c r="B586" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C586" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D586" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n" s="0">
+        <v>892.0</v>
+      </c>
+      <c r="B587" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C587" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D587" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n" s="0">
+        <v>893.0</v>
+      </c>
+      <c r="B588" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C588" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D588" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n" s="0">
+        <v>894.0</v>
+      </c>
+      <c r="B589" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C589" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D589" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n" s="0">
+        <v>895.0</v>
+      </c>
+      <c r="B590" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C590" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D590" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n" s="0">
+        <v>896.0</v>
+      </c>
+      <c r="B591" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C591" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D591" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n" s="0">
+        <v>897.0</v>
+      </c>
+      <c r="B592" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C592" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D592" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n" s="0">
+        <v>898.0</v>
+      </c>
+      <c r="B593" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C593" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D593" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n" s="0">
+        <v>899.0</v>
+      </c>
+      <c r="B594" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C594" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D594" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n" s="0">
+        <v>900.0</v>
+      </c>
+      <c r="B595" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C595" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D595" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n" s="0">
+        <v>901.0</v>
+      </c>
+      <c r="B596" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C596" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D596" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n" s="0">
+        <v>902.0</v>
+      </c>
+      <c r="B597" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C597" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D597" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n" s="0">
+        <v>903.0</v>
+      </c>
+      <c r="B598" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C598" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D598" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n" s="0">
+        <v>904.0</v>
+      </c>
+      <c r="B599" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C599" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D599" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n" s="0">
+        <v>905.0</v>
+      </c>
+      <c r="B600" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C600" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D600" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n" s="0">
+        <v>906.0</v>
+      </c>
+      <c r="B601" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C601" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D601" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n" s="0">
+        <v>907.0</v>
+      </c>
+      <c r="B602" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C602" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D602" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n" s="0">
+        <v>908.0</v>
+      </c>
+      <c r="B603" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C603" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D603" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n" s="0">
+        <v>909.0</v>
+      </c>
+      <c r="B604" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C604" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D604" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n" s="0">
+        <v>910.0</v>
+      </c>
+      <c r="B605" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C605" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D605" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n" s="0">
+        <v>911.0</v>
+      </c>
+      <c r="B606" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C606" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D606" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n" s="0">
+        <v>912.0</v>
+      </c>
+      <c r="B607" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C607" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D607" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n" s="0">
+        <v>913.0</v>
+      </c>
+      <c r="B608" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C608" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D608" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n" s="0">
+        <v>914.0</v>
+      </c>
+      <c r="B609" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C609" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D609" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n" s="0">
+        <v>915.0</v>
+      </c>
+      <c r="B610" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C610" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D610" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n" s="0">
+        <v>916.0</v>
+      </c>
+      <c r="B611" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C611" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D611" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n" s="0">
+        <v>917.0</v>
+      </c>
+      <c r="B612" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C612" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D612" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n" s="0">
+        <v>918.0</v>
+      </c>
+      <c r="B613" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C613" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D613" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n" s="0">
+        <v>919.0</v>
+      </c>
+      <c r="B614" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C614" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D614" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n" s="0">
+        <v>920.0</v>
+      </c>
+      <c r="B615" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C615" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D615" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n" s="0">
+        <v>921.0</v>
+      </c>
+      <c r="B616" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C616" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D616" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n" s="0">
+        <v>922.0</v>
+      </c>
+      <c r="B617" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C617" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D617" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n" s="0">
+        <v>923.0</v>
+      </c>
+      <c r="B618" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C618" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D618" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n" s="0">
+        <v>924.0</v>
+      </c>
+      <c r="B619" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C619" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D619" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n" s="0">
+        <v>925.0</v>
+      </c>
+      <c r="B620" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C620" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D620" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n" s="0">
+        <v>926.0</v>
+      </c>
+      <c r="B621" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C621" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D621" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n" s="0">
+        <v>927.0</v>
+      </c>
+      <c r="B622" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C622" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D622" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n" s="0">
+        <v>928.0</v>
+      </c>
+      <c r="B623" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C623" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D623" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n" s="0">
+        <v>929.0</v>
+      </c>
+      <c r="B624" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C624" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D624" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n" s="0">
+        <v>930.0</v>
+      </c>
+      <c r="B625" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C625" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D625" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n" s="0">
+        <v>931.0</v>
+      </c>
+      <c r="B626" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C626" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D626" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n" s="0">
+        <v>932.0</v>
+      </c>
+      <c r="B627" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C627" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D627" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n" s="0">
+        <v>933.0</v>
+      </c>
+      <c r="B628" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C628" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D628" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n" s="0">
+        <v>934.0</v>
+      </c>
+      <c r="B629" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C629" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D629" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n" s="0">
+        <v>935.0</v>
+      </c>
+      <c r="B630" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C630" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D630" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n" s="0">
+        <v>936.0</v>
+      </c>
+      <c r="B631" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C631" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D631" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n" s="0">
+        <v>937.0</v>
+      </c>
+      <c r="B632" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C632" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D632" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n" s="0">
+        <v>938.0</v>
+      </c>
+      <c r="B633" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C633" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D633" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n" s="0">
+        <v>939.0</v>
+      </c>
+      <c r="B634" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C634" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D634" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n" s="0">
+        <v>940.0</v>
+      </c>
+      <c r="B635" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C635" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D635" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n" s="0">
+        <v>941.0</v>
+      </c>
+      <c r="B636" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C636" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D636" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n" s="0">
+        <v>942.0</v>
+      </c>
+      <c r="B637" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C637" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D637" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n" s="0">
+        <v>943.0</v>
+      </c>
+      <c r="B638" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C638" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D638" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n" s="0">
+        <v>944.0</v>
+      </c>
+      <c r="B639" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C639" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D639" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n" s="0">
+        <v>945.0</v>
+      </c>
+      <c r="B640" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C640" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D640" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n" s="0">
+        <v>946.0</v>
+      </c>
+      <c r="B641" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C641" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D641" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n" s="0">
+        <v>947.0</v>
+      </c>
+      <c r="B642" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C642" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D642" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n" s="0">
+        <v>948.0</v>
+      </c>
+      <c r="B643" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C643" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D643" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n" s="0">
+        <v>949.0</v>
+      </c>
+      <c r="B644" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C644" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D644" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n" s="0">
+        <v>950.0</v>
+      </c>
+      <c r="B645" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C645" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D645" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n" s="0">
+        <v>951.0</v>
+      </c>
+      <c r="B646" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C646" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D646" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n" s="0">
+        <v>952.0</v>
+      </c>
+      <c r="B647" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C647" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D647" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n" s="0">
+        <v>953.0</v>
+      </c>
+      <c r="B648" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C648" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D648" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n" s="0">
+        <v>954.0</v>
+      </c>
+      <c r="B649" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C649" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D649" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n" s="0">
+        <v>955.0</v>
+      </c>
+      <c r="B650" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C650" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D650" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n" s="0">
+        <v>956.0</v>
+      </c>
+      <c r="B651" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C651" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D651" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n" s="0">
+        <v>957.0</v>
+      </c>
+      <c r="B652" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C652" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D652" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n" s="0">
+        <v>958.0</v>
+      </c>
+      <c r="B653" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C653" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D653" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n" s="0">
+        <v>959.0</v>
+      </c>
+      <c r="B654" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C654" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D654" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n" s="0">
+        <v>960.0</v>
+      </c>
+      <c r="B655" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C655" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D655" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n" s="0">
+        <v>961.0</v>
+      </c>
+      <c r="B656" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C656" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D656" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n" s="0">
+        <v>962.0</v>
+      </c>
+      <c r="B657" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C657" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D657" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n" s="0">
+        <v>963.0</v>
+      </c>
+      <c r="B658" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C658" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D658" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n" s="0">
+        <v>964.0</v>
+      </c>
+      <c r="B659" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C659" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D659" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n" s="0">
+        <v>965.0</v>
+      </c>
+      <c r="B660" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C660" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D660" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n" s="0">
+        <v>966.0</v>
+      </c>
+      <c r="B661" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C661" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D661" t="n" s="14">
+        <v>45628.0</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n" s="0">
+        <v>967.0</v>
+      </c>
+      <c r="B662" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C662" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D662" t="n" s="14">
+        <v>45629.0</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n" s="0">
+        <v>968.0</v>
+      </c>
+      <c r="B663" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C663" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D663" t="n" s="14">
+        <v>45629.0</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n" s="0">
+        <v>969.0</v>
+      </c>
+      <c r="B664" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C664" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D664" t="n" s="14">
+        <v>45629.0</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n" s="0">
+        <v>970.0</v>
+      </c>
+      <c r="B665" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C665" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D665" t="n" s="14">
+        <v>45629.0</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n" s="0">
+        <v>971.0</v>
+      </c>
+      <c r="B666" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C666" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D666" t="n" s="14">
+        <v>45629.0</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n" s="0">
+        <v>972.0</v>
+      </c>
+      <c r="B667" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C667" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D667" t="n" s="14">
+        <v>45629.0</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n" s="0">
+        <v>973.0</v>
+      </c>
+      <c r="B668" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C668" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D668" t="n" s="14">
+        <v>45629.0</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n" s="0">
+        <v>974.0</v>
+      </c>
+      <c r="B669" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C669" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D669" t="n" s="14">
+        <v>45629.0</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n" s="0">
+        <v>975.0</v>
+      </c>
+      <c r="B670" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C670" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D670" t="n" s="14">
+        <v>45629.0</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n" s="0">
+        <v>976.0</v>
+      </c>
+      <c r="B671" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C671" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D671" t="n" s="14">
+        <v>45629.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="68">
   <si>
     <t>Id</t>
   </si>
@@ -263,12 +263,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -615,7 +616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D671"/>
+  <dimension ref="A1:D686"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -10023,6 +10024,216 @@
         <v>45629.0</v>
       </c>
     </row>
+    <row r="672">
+      <c r="A672" t="n" s="0">
+        <v>977.0</v>
+      </c>
+      <c r="B672" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C672" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D672" t="n" s="15">
+        <v>45630.0</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n" s="0">
+        <v>978.0</v>
+      </c>
+      <c r="B673" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C673" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D673" t="n" s="15">
+        <v>45630.0</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n" s="0">
+        <v>979.0</v>
+      </c>
+      <c r="B674" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C674" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D674" t="n" s="15">
+        <v>45630.0</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n" s="0">
+        <v>980.0</v>
+      </c>
+      <c r="B675" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C675" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D675" t="n" s="15">
+        <v>45630.0</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n" s="0">
+        <v>981.0</v>
+      </c>
+      <c r="B676" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C676" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D676" t="n" s="15">
+        <v>45630.0</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n" s="0">
+        <v>982.0</v>
+      </c>
+      <c r="B677" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C677" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D677" t="n" s="15">
+        <v>45630.0</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n" s="0">
+        <v>983.0</v>
+      </c>
+      <c r="B678" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C678" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D678" t="n" s="15">
+        <v>45630.0</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n" s="0">
+        <v>984.0</v>
+      </c>
+      <c r="B679" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C679" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D679" t="n" s="15">
+        <v>45630.0</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n" s="0">
+        <v>985.0</v>
+      </c>
+      <c r="B680" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C680" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D680" t="n" s="15">
+        <v>45630.0</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n" s="0">
+        <v>986.0</v>
+      </c>
+      <c r="B681" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C681" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D681" t="n" s="15">
+        <v>45630.0</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n" s="0">
+        <v>987.0</v>
+      </c>
+      <c r="B682" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C682" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D682" t="n" s="15">
+        <v>45630.0</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n" s="0">
+        <v>988.0</v>
+      </c>
+      <c r="B683" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C683" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D683" t="n" s="15">
+        <v>45630.0</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n" s="0">
+        <v>989.0</v>
+      </c>
+      <c r="B684" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C684" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D684" t="n" s="15">
+        <v>45630.0</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n" s="0">
+        <v>990.0</v>
+      </c>
+      <c r="B685" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C685" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D685" t="n" s="15">
+        <v>45630.0</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n" s="0">
+        <v>991.0</v>
+      </c>
+      <c r="B686" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C686" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D686" t="n" s="15">
+        <v>45631.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
